--- a/Proyectos/2016/1/P1419 - RNCFAC , Carlos Lucas_ AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1419 - RNCFAC , Carlos Lucas_ AG/Planeación/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -310,13 +311,13 @@
     <t>Líder de ventas</t>
   </si>
   <si>
-    <t>Oriana Osiris de la Cruz</t>
+    <t>Marisol Ornelas</t>
   </si>
   <si>
     <t>33 14 21 95 20</t>
   </si>
   <si>
-    <t>oriana.campos@sos-soft.com</t>
+    <t>marisol.ornelas@sos-soft.com</t>
   </si>
   <si>
     <t>Generar plan de proyecto y dar seguimiento con inconformidades de calidad asi como generar la asignación de tarea</t>
@@ -325,10 +326,10 @@
     <t>Vendedor</t>
   </si>
   <si>
-    <t>Marisol Ornelas</t>
-  </si>
-  <si>
-    <t>marisol.ornelas@sos-soft.com</t>
+    <t>Alma Yesenia</t>
+  </si>
+  <si>
+    <t>alma.yesenia@sos-soft.com</t>
   </si>
   <si>
     <t>Dar seguimiento a las ventas y seguir el proceso definido por la empresa</t>
@@ -1870,15 +1871,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>796320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1887,8 +1888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10035720" cy="9362520"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10035360" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,15 +1916,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>796320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1932,8 +1933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10035720" cy="9362520"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10035360" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,15 +1961,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>796320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1977,8 +1978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10035720" cy="9362520"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10035360" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,15 +2011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
+      <xdr:colOff>739080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2027,8 +2028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10037520" cy="9524160"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10037160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2055,15 +2056,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
+      <xdr:colOff>739080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2072,8 +2073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10037520" cy="9524160"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10037160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,15 +2101,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
+      <xdr:colOff>739080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2117,8 +2118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10037520" cy="9524160"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10037160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,15 +2146,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
+      <xdr:colOff>739080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2162,8 +2163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10037520" cy="9524160"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10037160" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4680,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4729,7 +4730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>49</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
@@ -4899,6 +4900,27 @@
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
     </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+    </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="s">
         <v>81</v>
@@ -4920,8 +4942,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="oriana.campos@sos-soft.com"/>
-    <hyperlink ref="D5" r:id="rId2" display="marisol.ornelas@sos-soft.com"/>
+    <hyperlink ref="D4" r:id="rId1" display="marisol.ornelas@sos-soft.com"/>
+    <hyperlink ref="D5" r:id="rId2" display="alma.yesenia@sos-soft.com"/>
     <hyperlink ref="D7" r:id="rId3" display="zepeda.roque32@gmail.com"/>
     <hyperlink ref="D8" r:id="rId4" display="adriana.jaramillo@sos-soft.com"/>
     <hyperlink ref="D9" r:id="rId5" display="r.novela@sos-soft.com"/>
@@ -5057,8 +5079,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8583,7 +8605,7 @@
   </sheetPr>
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -8794,7 +8816,7 @@
         <v>151</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J7" s="82" t="s">
         <v>144</v>
@@ -8939,7 +8961,7 @@
         <v>162</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J10" s="82" t="s">
         <v>144</v>
